--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_8.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_24</t>
+          <t>model_20_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999957609795785</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989824976896653</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999996944417471</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999642881331867</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999803786727113</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G2" t="n">
-        <v>3.956939491975502e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009497937435079071</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I2" t="n">
-        <v>1.886145523022817e-06</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>2.27765628617674e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>1.233135419239511e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001219651681065872</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001989205744003245</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000007825883855</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00207389035074902</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P2" t="n">
-        <v>98.8800793741329</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q2" t="n">
-        <v>143.9784848942563</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_23</t>
+          <t>model_20_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999957501211578</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9989822200005496</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999970067675944</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999641533337941</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999803408935511</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G3" t="n">
-        <v>3.967075351027584e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009500529541083199</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I3" t="n">
-        <v>1.847658129868387e-06</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>2.286253615623353e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>1.235509714305096e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001224539176046069</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001991751829678483</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00000784593017</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002076544828562577</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P3" t="n">
-        <v>98.87496284430254</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q3" t="n">
-        <v>143.973368364426</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_22</t>
+          <t>model_20_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999957412885392</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9989819958076285</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999970789516487</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999640339578991</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999803157699348</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G4" t="n">
-        <v>3.975320212870446e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009502622283592917</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I4" t="n">
-        <v>1.803100462197574e-06</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>2.293867254501364e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>1.23708865036056e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001228390163159133</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001993820506683198</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000007862236543</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002078701573430135</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P4" t="n">
-        <v>98.87081051281106</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q4" t="n">
-        <v>143.9692160329345</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_21</t>
+          <t>model_20_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999957083076221</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9989813384827984</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.999997141343838</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999637084405145</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999801812382753</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G5" t="n">
-        <v>4.006106451305379e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009508758122349365</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I5" t="n">
-        <v>1.764587102698305e-06</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>2.314628328718679e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>1.245543519494255e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001237345175374306</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002001526030633971</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00000792312439</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002086735137488126</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P5" t="n">
-        <v>98.85538149621362</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q5" t="n">
-        <v>143.953787016337</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_20</t>
+          <t>model_20_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999956794101585</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9989807940607467</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999972156744367</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999634210034665</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999800718920847</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G6" t="n">
-        <v>4.033080965016375e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009513840063228437</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I6" t="n">
-        <v>1.718704419215669e-06</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>2.332960688736092e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>1.252415565328829e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001245636764277303</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008253212375465</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000007976473553</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002093748709283541</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P6" t="n">
-        <v>98.84195993328882</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q6" t="n">
-        <v>143.9403654534123</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_19</t>
+          <t>model_20_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999956487264716</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989801245519839</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999973059726609</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999963105074217</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999799559302059</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G7" t="n">
-        <v>4.061722839950533e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009520089633647827</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I7" t="n">
-        <v>1.662965263197559e-06</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>2.353110244193787e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>1.259703385256771e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001253390724539256</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002015371638172606</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N7" t="n">
-        <v>1.00000803312036</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002101170181204039</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P7" t="n">
-        <v>98.82780665908805</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q7" t="n">
-        <v>143.9262121792115</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_18</t>
+          <t>model_20_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999956107129675</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9989796167801809</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999973899025171</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999627488735674</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999798164065198</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G8" t="n">
-        <v>4.09720677744196e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009524829460543355</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I8" t="n">
-        <v>1.611157164125701e-06</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>2.375828257035143e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>1.268471986723857e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001263678821604477</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002024155818469013</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000008103299137</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002110328322241424</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P8" t="n">
-        <v>98.8104101804422</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q8" t="n">
-        <v>143.9088157005656</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_17</t>
+          <t>model_20_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999955760734703</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9989791283346593</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999997490395749</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999624215172213</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999796997150262</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G9" t="n">
-        <v>4.12954122754237e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009529388885084511</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I9" t="n">
-        <v>1.549124848562099e-06</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>2.396706617820879e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>1.275805660522859e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001272701077752434</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002032127266571258</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000008167248978</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002118639131392554</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P9" t="n">
-        <v>98.79468848016204</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q9" t="n">
-        <v>143.8930940002855</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_16</t>
+          <t>model_20_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999955152326078</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9989780318848914</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999975911960797</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999618699574409</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999794692863576</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G10" t="n">
-        <v>4.186333502143144e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009539623762382092</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I10" t="n">
-        <v>1.486902967629195e-06</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>2.431884381213377e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>1.290287338988148e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001285504898474585</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002046053152325996</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00000827957057</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002133157870934429</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P10" t="n">
-        <v>98.76737053254473</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q10" t="n">
-        <v>143.8657760526682</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_15</t>
+          <t>model_20_8_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999954610737307</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9989770574152053</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999977133925868</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999613916132474</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999792865779158</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G11" t="n">
-        <v>4.236888436573941e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009548720009159048</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I11" t="n">
-        <v>1.411473686077225e-06</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>2.462392549963584e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>1.301769959285653e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001296924964622167</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00205837033513747</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000008379556189</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002145999421718271</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P11" t="n">
-        <v>98.74336283485111</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.8417683549745</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_14</t>
+          <t>model_20_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999953924370012</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989761714266164</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999978285498816</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999608165291434</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999790513252502</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G12" t="n">
-        <v>4.300957810784088e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009556990323731965</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I12" t="n">
-        <v>1.340389559264538e-06</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>2.499070664035935e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>1.316554809981194e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001310776886027582</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002073875071161252</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000008506270152</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002162164226453813</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P12" t="n">
-        <v>98.71334562675028</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q12" t="n">
-        <v>143.8117511468737</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_13</t>
+          <t>model_20_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999995319150274</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9989752621146861</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999979563373309</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E13" t="n">
-        <v>0.999960223014178</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999788129231429</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G13" t="n">
-        <v>4.3693677536737e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009565478351459666</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I13" t="n">
-        <v>1.261509109063806e-06</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>2.536924274399682e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>1.331537592653031e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001325229171694787</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002090303268349763</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000008641568725</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002179291806007695</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P13" t="n">
-        <v>98.68178447623393</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q13" t="n">
-        <v>143.7801899963574</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999952278893319</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989741137124991</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999980962711147</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999595004058676</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999785149821931</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G14" t="n">
-        <v>4.454555837204994e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009576198181785445</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I14" t="n">
-        <v>1.175130987293694e-06</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>2.583011289940253e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>1.350262194334811e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001340773252633183</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002110581871713342</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000008810050464</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002200433711498958</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P14" t="n">
-        <v>98.64316640370723</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q14" t="n">
-        <v>143.7415719238306</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_11</t>
+          <t>model_20_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999950986174879</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989727892411983</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999982143684966</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999585078257358</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999780693296799</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G15" t="n">
-        <v>4.575225429194992e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009588561540002784</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I15" t="n">
-        <v>1.102232007853234e-06</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>2.646316756115882e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>1.378269978450603e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001364198093012624</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002138977659816715</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000009048706176</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002230038367089277</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P15" t="n">
-        <v>98.58970917261948</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.6881146927429</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_0</t>
+          <t>model_20_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999917790457404</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989709823052365</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999995703048722</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999413768121007</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999700426960791</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G16" t="n">
-        <v>7.673899943113917e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009605428494052869</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I16" t="n">
-        <v>2.652415812316302e-07</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>3.738910461689976e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>1.88271730990657e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001611540409980313</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002770180489266704</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000015177146325</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002888112807758937</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P16" t="n">
-        <v>97.55537120930232</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q16" t="n">
-        <v>142.6537767294257</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_10</t>
+          <t>model_20_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999949511629052</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989709459998426</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999983623000273</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999573907586784</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999775751621532</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G17" t="n">
-        <v>4.712867809690474e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009605767388968866</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I17" t="n">
-        <v>1.010917048501576e-06</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>2.717561836037489e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>1.409326770443823e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001386830220948079</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002170914049355818</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000009320930021</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002263334354848499</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P17" t="n">
-        <v>98.53042791686836</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.6288334369918</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_9</t>
+          <t>model_20_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999947804879739</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989689321726527</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999985172790599</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999561504692778</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999977021930788</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G18" t="n">
-        <v>4.872185366274628e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.000962456558181869</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I18" t="n">
-        <v>9.152518175021399e-07</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>2.796665876296117e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>1.444095529023165e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001417740155998764</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002207302735529186</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000009636022202</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002301272182727232</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P18" t="n">
-        <v>98.4639359620311</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q18" t="n">
-        <v>143.5623414821545</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_1</t>
+          <t>model_20_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999923594255047</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989665509235248</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999995514926765</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999434757804858</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999710985053452</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G19" t="n">
-        <v>7.13214090893125e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009646793497179713</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I19" t="n">
-        <v>2.768539459473879e-07</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>3.605040995782711e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>1.816363195188725e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001614005524603135</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002670606842822667</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000014105675991</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002784300105039913</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P19" t="n">
-        <v>97.70179820175422</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q19" t="n">
-        <v>142.8002037218776</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_8</t>
+          <t>model_20_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999945383993621</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989652612181014</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999986903105473</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999543364618951</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999761864518864</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G20" t="n">
-        <v>5.09816445885184e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009658832331192345</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I20" t="n">
-        <v>8.08443193494144e-07</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>2.912360901143542e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>1.496602610246478e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001451514326872152</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002257911525913237</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000010082955024</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O20" t="n">
-        <v>0.00235403549409257</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P20" t="n">
-        <v>98.37325998609241</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q20" t="n">
-        <v>143.4716655062158</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_3</t>
+          <t>model_20_8_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999933690800245</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989651427117121</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999993911661342</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E21" t="n">
-        <v>0.999948401053166</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999735189261141</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G21" t="n">
-        <v>6.189672733431873e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009659938536317803</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I21" t="n">
-        <v>3.758200798955486e-07</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>3.290913528305447e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>1.664247768147501e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001570012015696339</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00248790529028576</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000012241698416</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002593820569167159</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P21" t="n">
-        <v>97.98525668574064</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q21" t="n">
-        <v>143.083662205864</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_2</t>
+          <t>model_20_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999928826163198</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989645004457436</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999994790409751</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999458085854642</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999722466244994</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G22" t="n">
-        <v>6.643765248409241e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009665933807211789</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I22" t="n">
-        <v>3.215768263899238e-07</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>3.456257736950365e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>1.744207709794679e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001597466174493606</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002577550241684775</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000013139785256</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002687281891737861</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P22" t="n">
-        <v>97.84366339941565</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q22" t="n">
-        <v>142.9420689195391</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_7</t>
+          <t>model_20_8_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999943426760275</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989631753447746</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999998854958312</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999530774880128</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999756284880379</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G23" t="n">
-        <v>5.280863600477352e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000967830304310479</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I23" t="n">
-        <v>7.06809661668526e-07</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>2.992656613273778e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>1.531668789720315e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001476082313929822</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002298012967865358</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000010444290411</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002395844137450023</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P23" t="n">
-        <v>98.30284182584846</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.4012473459719</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_6</t>
+          <t>model_20_8_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999941384571663</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989627821138916</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999989937198226</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999519387758082</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999751188340551</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G24" t="n">
-        <v>5.471492943192322e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009681973680789997</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I24" t="n">
-        <v>6.211551589927712e-07</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>3.065282192450946e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>1.563698854175112e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001504832162546886</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002339122259137457</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000010821309847</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O24" t="n">
-        <v>0.00243870353635954</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P24" t="n">
-        <v>98.23191809165576</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q24" t="n">
-        <v>143.3303236117792</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_4</t>
+          <t>model_20_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999935670195131</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989617527350702</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999992486818249</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999487851850647</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999736438665168</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G25" t="n">
-        <v>6.00490490926822e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009691582480242281</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I25" t="n">
-        <v>4.637725864155228e-07</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>3.266414096826892e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>1.656395677734222e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001568730729029974</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002450490748659995</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000011876271668</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002554813213045606</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P25" t="n">
-        <v>98.0458678756339</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q25" t="n">
-        <v>143.1442733957573</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_5</t>
+          <t>model_20_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999938301847739</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989614947882065</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999991153377331</v>
+        <v>0.9999729332048588</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999500555644479</v>
+        <v>0.9999882717448302</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999742229908802</v>
+        <v>0.9999787623451173</v>
       </c>
       <c r="G26" t="n">
-        <v>5.759251689920702e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009693990300989299</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I26" t="n">
-        <v>5.460830326688416e-07</v>
+        <v>4.471350215755075e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>3.185390956725505e-05</v>
+        <v>1.989184062598218e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>1.619999629996194e-05</v>
+        <v>2.335134311007448e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001546271131800797</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002399844097003116</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00001139042811</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002502010428574673</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P26" t="n">
-        <v>98.12940601328094</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.2278115334044</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
   </sheetData>
